--- a/artfynd/A 35206-2025 artfynd.xlsx
+++ b/artfynd/A 35206-2025 artfynd.xlsx
@@ -800,7 +800,7 @@
         <v>125080961</v>
       </c>
       <c r="B3" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>125271336</v>
       </c>
       <c r="B4" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         <v>125270925</v>
       </c>
       <c r="B5" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>125283496</v>
       </c>
       <c r="B6" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
